--- a/output/cpra_postproc/Gate_Closure_Trigger.xlsx
+++ b/output/cpra_postproc/Gate_Closure_Trigger.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>17StCanal</t>
   </si>
@@ -96,6 +96,21 @@
   </si>
   <si>
     <t>Hero Canal Stop-Log Gate</t>
+  </si>
+  <si>
+    <t>LakefrontAirport</t>
+  </si>
+  <si>
+    <t>Mandeville</t>
+  </si>
+  <si>
+    <t>Rigolets</t>
+  </si>
+  <si>
+    <t>Lafitte</t>
+  </si>
+  <si>
+    <t>Lakefront Airport</t>
   </si>
 </sst>
 </file>
@@ -418,12 +433,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -559,6 +575,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/output/cpra_postproc/Gate_Closure_Trigger.xlsx
+++ b/output/cpra_postproc/Gate_Closure_Trigger.xlsx
@@ -435,7 +435,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -451,7 +453,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -539,7 +541,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -561,7 +563,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">

--- a/output/cpra_postproc/Gate_Closure_Trigger.xlsx
+++ b/output/cpra_postproc/Gate_Closure_Trigger.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\asgs\output\cpra_postproc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\CPRA_Manual\Adv12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,7 +475,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -519,7 +519,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -552,7 +552,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">

--- a/output/cpra_postproc/Gate_Closure_Trigger.xlsx
+++ b/output/cpra_postproc/Gate_Closure_Trigger.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\CPRA_Manual\Adv12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbilsk3\Documents\PROJECTS\CPRA\asgs\output\cpra_postproc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427BB8C5-7D50-4B6A-B1DF-5679D9B3E481}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
+    <workbookView xWindow="8400" yWindow="936" windowWidth="12438" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>17StCanal</t>
   </si>
@@ -111,12 +112,48 @@
   </si>
   <si>
     <t>Lakefront Airport</t>
+  </si>
+  <si>
+    <t>HarveyCanalNorth</t>
+  </si>
+  <si>
+    <t>HarveyCanalBoom</t>
+  </si>
+  <si>
+    <t>BayouBienv</t>
+  </si>
+  <si>
+    <t>BaraPass</t>
+  </si>
+  <si>
+    <t>FreshCanal</t>
+  </si>
+  <si>
+    <t>CalcRiv</t>
+  </si>
+  <si>
+    <t>Harvey Canal Sector Gates North / Prot Side nr Lapalco Blvd</t>
+  </si>
+  <si>
+    <t>Harvey Canal at Boomtown Casion</t>
+  </si>
+  <si>
+    <t>Bayou Bienvenue Floodgate</t>
+  </si>
+  <si>
+    <t>Barataria Pass at Grand Isle</t>
+  </si>
+  <si>
+    <t>Freshwater Canal at Freshwater Bayou Lock South</t>
+  </si>
+  <si>
+    <t>Calcasieu River at Cameron</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -432,20 +469,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.9453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -467,7 +504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -478,7 +515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -489,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -500,7 +537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -511,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -522,7 +559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -533,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -544,7 +581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -555,7 +592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -566,7 +603,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -577,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -588,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -599,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -610,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -618,6 +655,72 @@
         <v>27</v>
       </c>
       <c r="C16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2">
         <v>0</v>
       </c>
     </row>

--- a/output/cpra_postproc/Gate_Closure_Trigger.xlsx
+++ b/output/cpra_postproc/Gate_Closure_Trigger.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbilsk3\Documents\PROJECTS\CPRA\asgs\output\cpra_postproc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbilsk3\Desktop\working\Barry_CPRA_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427BB8C5-7D50-4B6A-B1DF-5679D9B3E481}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="936" windowWidth="12438" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8400" yWindow="930" windowWidth="12435" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>17StCanal</t>
   </si>
@@ -148,22 +147,71 @@
   </si>
   <si>
     <t>Calcasieu River at Cameron</t>
+  </si>
+  <si>
+    <t>WestPoint</t>
+  </si>
+  <si>
+    <t>Alliance</t>
+  </si>
+  <si>
+    <t>Carrollton</t>
+  </si>
+  <si>
+    <t>BCSpillway</t>
+  </si>
+  <si>
+    <t>BCSpillwayN</t>
+  </si>
+  <si>
+    <t>Reserve</t>
+  </si>
+  <si>
+    <t>MS River at West Point a la Hache</t>
+  </si>
+  <si>
+    <t>MS River at Alliance</t>
+  </si>
+  <si>
+    <t>MS River at Carrollton</t>
+  </si>
+  <si>
+    <t>MS River at Bonnet Carre Spillway</t>
+  </si>
+  <si>
+    <t>MS River at Bonnet Carre Spillway North</t>
+  </si>
+  <si>
+    <t>MS River at Reserve</t>
+  </si>
+  <si>
+    <t>MorganCity</t>
+  </si>
+  <si>
+    <t>Lower Atchafalaya River at Morgan City</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -186,10 +234,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,20 +518,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A29" sqref="A29:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.41796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.9453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -504,7 +553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -515,7 +564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -526,7 +575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -537,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -548,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -559,7 +608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -570,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -581,7 +630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -592,7 +641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -603,7 +652,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -614,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -625,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -636,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -647,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -658,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -669,7 +718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -680,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -691,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -702,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -713,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -721,6 +770,83 @@
         <v>40</v>
       </c>
       <c r="C22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2">
         <v>0</v>
       </c>
     </row>

--- a/output/cpra_postproc/Gate_Closure_Trigger.xlsx
+++ b/output/cpra_postproc/Gate_Closure_Trigger.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbilsk3\Desktop\working\Barry_CPRA_Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbilsk3\Documents\PROJECTS\CPRA\2020_Season\AL032020\NAM\2020060406\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="930" windowWidth="12435" windowHeight="9060"/>
+    <workbookView xWindow="8400" yWindow="930" windowWidth="12438" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>17StCanal</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>Lower Atchafalaya River at Morgan City</t>
+  </si>
+  <si>
+    <t>HoumaNavCanal</t>
+  </si>
+  <si>
+    <t>Houma Navigation Canal</t>
   </si>
 </sst>
 </file>
@@ -519,19 +525,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.41796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -553,7 +559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -564,7 +570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -575,7 +581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -586,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -597,7 +603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -608,7 +614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -619,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -630,7 +636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -641,7 +647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -652,7 +658,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -663,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -674,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -685,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -696,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -707,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -718,7 +724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -729,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -740,7 +746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -751,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -762,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -773,80 +779,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C30" s="2">
         <v>0</v>
       </c>
     </row>

--- a/output/cpra_postproc/Gate_Closure_Trigger.xlsx
+++ b/output/cpra_postproc/Gate_Closure_Trigger.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbilsk3\Documents\PROJECTS\CPRA\2020_Season\AL032020\NAM\2020060406\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbilsk3\Documents\PROJECTS\CPRA\2020_Season\AL032020\NAM\2020060518\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="930" windowWidth="12438" windowHeight="9060"/>
+    <workbookView xWindow="8400" yWindow="930" windowWidth="12435" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>17StCanal</t>
   </si>
@@ -195,6 +195,24 @@
   </si>
   <si>
     <t>Houma Navigation Canal</t>
+  </si>
+  <si>
+    <t>Venice</t>
+  </si>
+  <si>
+    <t>MS River at Venice</t>
+  </si>
+  <si>
+    <t>BayouSale</t>
+  </si>
+  <si>
+    <t>GIWW at Bayou Sale Ridge</t>
+  </si>
+  <si>
+    <t>BayouBoeuf</t>
+  </si>
+  <si>
+    <t>Bayou Boeuf at Railroad Bridge</t>
   </si>
 </sst>
 </file>
@@ -525,19 +543,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -559,7 +577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -570,7 +588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -581,7 +599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -592,7 +610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -603,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -614,7 +632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -622,10 +640,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -636,7 +654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -647,7 +665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -658,7 +676,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -669,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -680,7 +698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -691,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -702,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -713,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -724,7 +742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -735,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -746,7 +764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -757,7 +775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -768,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -779,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>55</v>
       </c>
@@ -790,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
@@ -801,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
@@ -812,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
@@ -823,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
@@ -834,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>45</v>
       </c>
@@ -845,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
@@ -856,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>53</v>
       </c>
@@ -864,6 +882,39 @@
         <v>54</v>
       </c>
       <c r="C30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="2">
         <v>0</v>
       </c>
     </row>

--- a/output/cpra_postproc/Gate_Closure_Trigger.xlsx
+++ b/output/cpra_postproc/Gate_Closure_Trigger.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbilsk3\Documents\PROJECTS\CPRA\2020_Season\AL032020\NAM\2020060518\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbilsk3\Documents\PROJECTS\CPRA\2020_Season\SlideDeckUpdates_07012020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>17StCanal</t>
   </si>
@@ -41,9 +41,6 @@
     <t>WBV09b</t>
   </si>
   <si>
-    <t>WBV09a</t>
-  </si>
-  <si>
     <t>WBV162</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>West Closure Complex</t>
   </si>
   <si>
-    <t>Oakville Sluice Gage</t>
-  </si>
-  <si>
     <t>Bayou Segnette Closure</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>Lakefront Airport</t>
   </si>
   <si>
-    <t>HarveyCanalNorth</t>
-  </si>
-  <si>
     <t>HarveyCanalBoom</t>
   </si>
   <si>
@@ -125,15 +116,9 @@
     <t>BaraPass</t>
   </si>
   <si>
-    <t>FreshCanal</t>
-  </si>
-  <si>
     <t>CalcRiv</t>
   </si>
   <si>
-    <t>Harvey Canal Sector Gates North / Prot Side nr Lapalco Blvd</t>
-  </si>
-  <si>
     <t>Harvey Canal at Boomtown Casion</t>
   </si>
   <si>
@@ -143,9 +128,6 @@
     <t>Barataria Pass at Grand Isle</t>
   </si>
   <si>
-    <t>Freshwater Canal at Freshwater Bayou Lock South</t>
-  </si>
-  <si>
     <t>Calcasieu River at Cameron</t>
   </si>
   <si>
@@ -213,15 +195,77 @@
   </si>
   <si>
     <t>Bayou Boeuf at Railroad Bridge</t>
+  </si>
+  <si>
+    <t>85625</t>
+  </si>
+  <si>
+    <t>073802332</t>
+  </si>
+  <si>
+    <t>82742</t>
+  </si>
+  <si>
+    <t>07380260</t>
+  </si>
+  <si>
+    <t>01440</t>
+  </si>
+  <si>
+    <t>85670</t>
+  </si>
+  <si>
+    <t>85575</t>
+  </si>
+  <si>
+    <t>85700</t>
+  </si>
+  <si>
+    <t>82875</t>
+  </si>
+  <si>
+    <t>76230</t>
+  </si>
+  <si>
+    <t>073802516</t>
+  </si>
+  <si>
+    <t>08017118</t>
+  </si>
+  <si>
+    <t>01400</t>
+  </si>
+  <si>
+    <t>01390</t>
+  </si>
+  <si>
+    <t>01300</t>
+  </si>
+  <si>
+    <t>01280</t>
+  </si>
+  <si>
+    <t>01275</t>
+  </si>
+  <si>
+    <t>01260</t>
+  </si>
+  <si>
+    <t>03780</t>
+  </si>
+  <si>
+    <t>01480</t>
+  </si>
+  <si>
+    <t>073814675</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.00000000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -261,8 +305,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,383 +587,532 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>76030</v>
+      </c>
+      <c r="D3" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>76265</v>
+      </c>
+      <c r="D4" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>82762</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>85760</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>76010</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>82715</v>
+      </c>
+      <c r="D9" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1">
+        <v>76025</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1">
+        <v>76305</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1">
+        <v>76560</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B30" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="C30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="E30">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>